--- a/data/Ontologies_graph_1.xlsx
+++ b/data/Ontologies_graph_1.xlsx
@@ -459,17 +459,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Architecture and Building Physics Information Ontology</t>
+          <t>Architecture, Engineering, Construction, Compliance Checking and Permitting Ontology (AEC3PO)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>th-building</t>
+          <t>aec3po</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Planning Permission</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -479,17 +479,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Architecture, Engineering, Construction, Compliance Checking and Permitting Ontology (AEC3PO)</t>
+          <t>BIMERR Annotation Objects Ontology</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>aec3po</t>
+          <t>ao</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Planning Permission</t>
+          <t>Information Management</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -539,17 +539,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Asset Condition Integration from ICDD to AMS</t>
+          <t>Building Assessment Ontology</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>icdd2ams</t>
+          <t>bao</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BE Product (Infrastructure)</t>
+          <t>Standards, Codes and Certifications</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -559,17 +559,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BEM-Reno Ontology</t>
+          <t>Building Circularity Assessment Ontology</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bem-reno</t>
+          <t>bcao</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Circular Economy</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -599,17 +599,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BIM design ontology</t>
+          <t>BEM-Reno Ontology</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bimdo</t>
+          <t>bem-reno</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -619,12 +619,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BIM shared ontology</t>
+          <t>Building Element Ontology</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bimso</t>
+          <t>beo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -633,23 +633,23 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BIMERR Annotation Objects Ontology</t>
+          <t>Building Fire Protection</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ao</t>
+          <t>bfp</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Information Management</t>
+          <t>Fire Safety</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -659,12 +659,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BIMERR Building ontology</t>
+          <t>BIM design ontology</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>bimdo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -673,23 +673,23 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BIMERR Information Objects Ontology</t>
+          <t>BIM shared ontology</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>io</t>
+          <t>bimso</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Information Management</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -699,212 +699,212 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BIMERR Key Performance Indicator ontology</t>
+          <t>BIMERR Metadata ontology</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>kpi</t>
+          <t>bm</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Information Management</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BIMERR Material properties ontology</t>
+          <t>Building Performance Ontology</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>bop</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BIMERR Metadata ontology</t>
+          <t>Building Topology Ontology</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bm</t>
+          <t>bot</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Information Management</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BIMERR Occupancy Profile ontology</t>
+          <t>Building Product Ontology</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>bpo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Comfort</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BIMERR Renovation Process Ontology</t>
+          <t>Brick Ontology</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>renp</t>
+          <t>brick</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Production (Process)</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BIMERR Sensor Data ontology</t>
+          <t>Bridge Topology Ontology</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>brot</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>BE Product (Infrastructure)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BIMERR Weather Ontology</t>
+          <t>BIMERR Building ontology</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>weat</t>
+          <t>building</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Weather/Climate</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brick Ontology</t>
+          <t>Circular Materials and Activities Ontologies</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>brick</t>
+          <t>camo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Circular Economy</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bridge Topology Ontology</t>
+          <t>Construction Dataset Context Ontology</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>brot</t>
+          <t>cdc</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BE Product (Infrastructure)</t>
+          <t>Information Management</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Building Assessment Ontology</t>
+          <t>Concrete Damage Ontology</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bao</t>
+          <t>cdo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Standards, Codes and Certifications</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Building Circularity Assessment Ontology</t>
+          <t>Circular Exchange Ontology</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bcao</t>
+          <t>ceo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -919,72 +919,72 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Building Element Ontology</t>
+          <t>Construction Semantic Enrichment Ontology</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>beo</t>
+          <t>conse</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Production (Process)</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Building Fire Protection</t>
+          <t>ConTax ontology</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bfp</t>
+          <t>contax</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fire Safety</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Building Performance Ontology</t>
+          <t>Construction Task Ontology</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bop</t>
+          <t>cto</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Production (Process)</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Building Product Ontology</t>
+          <t>Digital Building Ontology</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bpo</t>
+          <t>dbo</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -993,18 +993,18 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Building Topology Ontology</t>
+          <t>Digital Construction - Levels</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>dclvl</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1013,83 +1013,83 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Buildling Ontology Shared Vocabulary</t>
+          <t>Digital Construction - Agents</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>th-sharedvocabulary</t>
+          <t>dica</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Resources</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>calidad-aire</t>
+          <t>Digital Construction - Contexts</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>esair</t>
+          <t>dicc</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>Production (Process)</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Circular Exchange Ontology</t>
+          <t>Digital Construction - Entities</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ceo</t>
+          <t>dice</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Circular Economy</t>
+          <t>Production (Process)</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Circular Materials and Activities Ontologies</t>
+          <t>Digital Construction - Energy</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>camo</t>
+          <t>dices</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Circular Economy</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1099,177 +1099,177 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CityGML Ontology</t>
+          <t>Digital Construction - Information</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">OntoCityGML </t>
+          <t>dici</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Geographic Information</t>
+          <t>Information Management</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">COGITO Facility ontology </t>
+          <t>Digital Construction - Lifecycle</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>dicl</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Production (Process)</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>COGITO IoT ontology</t>
+          <t>Digital Construction - Materials</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>iot</t>
+          <t>dicm</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>COGITO Process ontology</t>
+          <t>Digital Construction - Occupancy</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>dicob</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Production (Process)</t>
+          <t>Comfort</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>COGITO Quality ontology</t>
+          <t>Digital Construction - Processes</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>dicp</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Production (Process)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>COGITO Resource ontology</t>
+          <t>Digital Construction - Stages</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>dicstg</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Resources</t>
+          <t>Production (Process)</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>COGITO Safety ontology</t>
+          <t>Digital Construction - Units</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>dicu</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Concrete Damage Ontology</t>
+          <t>Digital Construction - Variables</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cdo</t>
+          <t>dicv</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>Production (Process)</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Construction Dataset Context Ontology</t>
+          <t>Damage Mechanics Ontology</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cdc</t>
+          <t>dmo</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Information Management</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1279,17 +1279,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Construction Semantic Enrichment Ontology</t>
+          <t>Ontology Modeling for Intelligent Domotic Environments</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>conse</t>
+          <t>dogont</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Production (Process)</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1299,57 +1299,57 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Construction Task Ontology</t>
+          <t>Decommissioning and Reuse Ontology</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cto</t>
+          <t>dor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Production (Process)</t>
+          <t>Circular Economy</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ConTax ontology</t>
+          <t>Damage Topology Ontology</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>contax</t>
+          <t>dot</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Damage Mechanics Ontology</t>
+          <t>DSTV:Steel Construction Ontology</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>dmo</t>
+          <t>dstv</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -1359,37 +1359,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Damage Topology Ontology</t>
+          <t>Data Templates Ontology</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>dot</t>
+          <t>dt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Data Templates Ontology</t>
+          <t>Digital Twin Construction Ontology</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>dtc</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Production (Process)</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1399,17 +1399,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Decommissioning and Reuse Ontology</t>
+          <t>Energy Efficiency Prediction Semantic Assistant ontology</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>dor</t>
+          <t>eepsa</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Circular Economy</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1419,137 +1419,137 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Digital Building Ontology</t>
+          <t>Elementary Multiperspective Material Ontology</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>dbo</t>
+          <t>emmo</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Digital Construction - Agents</t>
+          <t>calidad-aire</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>dica</t>
+          <t>esair</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Resources</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Digital Construction - Contexts</t>
+          <t>Eurobau Utility Ontology</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>dicc</t>
+          <t>eurobau</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Production (Process)</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Digital Construction - Energy</t>
+          <t xml:space="preserve">COGITO Facility ontology </t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>dices</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Digital Construction - Entities</t>
+          <t>Firefighters' Data Requirements Ontology</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>ffdr</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Production (Process)</t>
+          <t>Fire Safety</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Digital Construction - Information</t>
+          <t>Fire Safety Ontology</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>dici</t>
+          <t>fisa</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Information Management</t>
+          <t>Fire Safety</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Digital Construction - Levels</t>
+          <t>Facility Management Building Energy Ontology for Renovative Design Decisons</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>dclvl</t>
+          <t>fm-ener</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Facilities Management</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1559,57 +1559,57 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Digital Construction - Lifecycle</t>
+          <t>File Ontology for Geometry formats</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>dicl</t>
+          <t>fog</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Production (Process)</t>
+          <t>Geometry</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Digital Construction - Materials</t>
+          <t>Flow Systems Ontology</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>dicm</t>
+          <t>FSO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Facilities Management</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Digital Construction - Occupancy</t>
+          <t>Holistic Building Performance Ontology</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>dicob</t>
+          <t>HBPO</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Comfort</t>
+          <t>Facilities Management</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1619,172 +1619,177 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Digital Construction - Processes</t>
+          <t>Asset Condition Integration from ICDD to AMS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>dicp</t>
+          <t>icdd2ams</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Production (Process)</t>
+          <t>BE Product (Infrastructure)</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Digital Construction - Stages</t>
+          <t xml:space="preserve">Information Delivery Processes Ontology </t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>dicstg</t>
+          <t>idpo</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Production (Process)</t>
+          <t>Information Management</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Digital Construction - Units</t>
+          <t>IfcOWL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>dicu</t>
+          <t>ifc4-add2</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Digital Construction - Variables</t>
+          <t>Infrastructure Topology</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>dicv</t>
+          <t>into</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Production (Process)</t>
+          <t>BE Product (Infrastructure)</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Digital Twin Construction Ontology</t>
+          <t>BIMERR Information Objects Ontology</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>dtc</t>
+          <t>io</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Production (Process)</t>
+          <t>Information Management</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Distribution Element Ontology</t>
+          <t>Internet of Construction Process Ontology</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>mep</t>
+          <t>ioc</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Production (Process)</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DSTV:Steel Construction Ontology</t>
+          <t>COGITO IoT ontology</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>dstv</t>
+          <t>iot</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Elementary Multiperspective Material Ontology</t>
+          <t>ISO 23386 Property Ontology</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>emmo</t>
+          <t>isoprops</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Facilities Management</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EN 17632-1:2022 / EN 17632-2:2024 - BIM Semantic modelling and linking (SML) - Normative classes and properties (RDFS, OWL, and SHACL)</t>
+          <t>Ontology of Building Accessibility</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>sml</t>
+          <t>jup</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Standards, Codes and Certifications</t>
+          <t>Mobility/Transport</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1794,32 +1799,32 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EN 17632-1:2022 / EN 17632-2:2024 - BIM Semantic modelling and linking (SML) - Normative terminology (SKOS)</t>
+          <t>BIMERR Key Performance Indicator ontology</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>sml-term</t>
+          <t>kpi</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Standards, Codes and Certifications</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Energy and Resource Information</t>
+          <t>LCA-C Ontology</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>th-energy</t>
+          <t>lca-c-renovation</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1834,32 +1839,32 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Energy Efficiency Prediction Semantic Assistant ontology</t>
+          <t>Level of Information Needs Ontology</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>eepsa</t>
+          <t>loin</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Information Management</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Eurobau Utility Ontology</t>
+          <t>BIMERR Material properties ontology</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>eurobau</t>
+          <t>mat</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1868,43 +1873,43 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Facility Management Building Energy Ontology for Renovative Design Decisons</t>
+          <t>Materials Design Ontology</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>fm-ener</t>
+          <t>mdo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Facilities Management</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>File Ontology for Geometry formats</t>
+          <t>Distribution Element Ontology</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>mep</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Geometry</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1914,17 +1919,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Fire Safety Ontology</t>
+          <t>Material Passport Ontology</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>fisa</t>
+          <t>mpo</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Fire Safety</t>
+          <t>Circular Economy</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1934,17 +1939,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Firefighters' Data Requirements Ontology</t>
+          <t>NEN 2660-2:2022 - Rules for information modelling of the built environment - Normative classes and properties (RDFS, OWL, and SHACL)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ffdr</t>
+          <t>nen2660</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Fire Safety</t>
+          <t>Standards, Codes and Certifications</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1954,17 +1959,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Flow Systems Ontology</t>
+          <t>NEN 2660-2:2022 - Rules for information modelling of the built environment - Normative terminology (SKOS)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FSO</t>
+          <t xml:space="preserve">nen2660-term </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Facilities Management</t>
+          <t>Standards, Codes and Certifications</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1974,17 +1979,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Holistic Building Performance Ontology</t>
+          <t xml:space="preserve">Ontology for Building Permit Authorities </t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>HBPO</t>
+          <t>obpa</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Facilities Management</t>
+          <t>Planning Permission</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1994,37 +1999,37 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IfcOWL</t>
+          <t>Ontology for Construction Quality Assurence</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ifc4-add2</t>
+          <t>ocqa</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Indoor Navigation Ontology</t>
+          <t>Occupant Feedback Ontology</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ontonav</t>
+          <t>ofo</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Mobility/Transport</t>
+          <t>Comfort</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -2034,97 +2039,97 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information Delivery Processes Ontology </t>
+          <t>Ontology for Managing Geometry</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>idpo</t>
+          <t>omg</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Information Management</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Infrastructure Topology</t>
+          <t>oneM2M Base Ontology</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>into</t>
+          <t>onem2m</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>BE Product (Infrastructure)</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Internet of Construction Process Ontology</t>
+          <t>CityGML Ontology</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ioc</t>
+          <t xml:space="preserve">OntoCityGML </t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Production (Process)</t>
+          <t>Geographic Information</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ISO 23386 Property Ontology</t>
+          <t>Indoor Navigation Ontology</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>isoprops</t>
+          <t>ontonav</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Facilities Management</t>
+          <t>Mobility/Transport</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>LCA-C Ontology</t>
+          <t>BIMERR Occupancy Profile ontology</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>lca-c-renovation</t>
+          <t>op</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Comfort</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -2134,97 +2139,97 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Level of Information Needs Ontology</t>
+          <t>Ontology for Property Management</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>loin</t>
+          <t>opm</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Information Management</t>
+          <t>Facilities Management</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Material Passport Ontology</t>
+          <t>COGITO Process ontology</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>mpo</t>
+          <t>process</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Circular Economy</t>
+          <t>Production (Process)</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Materials Design Ontology</t>
+          <t>COGITO Quality ontology</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>mdo</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Quality</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NEN 2660-2:2022 - Rules for information modelling of the built environment - Normative classes and properties (RDFS, OWL, and SHACL)</t>
+          <t>RealEstateCore</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>nen2660</t>
+          <t>rec</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Standards, Codes and Certifications</t>
+          <t>Facilities Management</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NEN 2660-2:2022 - Rules for information modelling of the built environment - Normative terminology (SKOS)</t>
+          <t>Reno-Inst Ontology</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t xml:space="preserve">nen2660-term </t>
+          <t>reno-inst</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Standards, Codes and Certifications</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2234,17 +2239,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Occupant Feedback Ontology</t>
+          <t>BIMERR Renovation Process Ontology</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ofo</t>
+          <t>renp</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Comfort</t>
+          <t>Production (Process)</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2254,112 +2259,112 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>oneM2M Base Ontology</t>
+          <t>COGITO Resource ontology</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>onem2m</t>
+          <t>resource</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>Resources</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ontology for Building Permit Authorities </t>
+          <t>Smart Applications Reference - Building devices</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>obpa</t>
+          <t>s4bldg</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Planning Permission</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ontology for Construction Quality Assurence</t>
+          <t>Smart Applications Reference - s4city</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ocqa</t>
+          <t>s4city</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Quality</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ontology for Managing Geometry</t>
+          <t>Smart Applications Reference - s4ener</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>omg</t>
+          <t>s4ener</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ontology for Property Management</t>
+          <t>Smart Applications Reference - s4envi</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>opm</t>
+          <t>s4envi</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Facilities Management</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ontology Modeling for Intelligent Domotic Environments</t>
+          <t>Smart Applications Reference - s4grid</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>dogont</t>
+          <t>s4grid</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2374,12 +2379,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ontology of Building Accessibility</t>
+          <t>Smart Applications Reference - s4lift</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>jup</t>
+          <t>s4lift</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2389,57 +2399,57 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Ontology of smart building</t>
+          <t>Smart Applications Reference - s4syst</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sbonto</t>
+          <t>s4syst</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RealEstateCore</t>
+          <t>Smart Applications Reference - s4water</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>rec</t>
+          <t>s4water</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Facilities Management</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Reno-Inst Ontology</t>
+          <t>COGITO Safety ontology</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>reno-inst</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -2449,17 +2459,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Scan To Graph</t>
+          <t>Stream Annotation Ontology</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>sao</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BE Product (Building)</t>
+          <t>IoT Sensors/Actuators</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2469,12 +2479,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Semantic Sensor Network Ontology - SOSA</t>
+          <t>Smart Applications Reference - Core</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>saref</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2483,27 +2493,27 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Semantic Sensor Network Ontology - SSN</t>
+          <t>Smart Building Evacuation Ontology</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>sbeo</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2529,32 +2539,32 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Smart Applications Reference - Building devices</t>
+          <t>Ontology of smart building</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>s4bldg</t>
+          <t>sbonto</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Smart Applications Reference - Core</t>
+          <t>BIMERR Sensor Data ontology</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2563,43 +2573,43 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Smart Applications Reference - s4city</t>
+          <t>Smart Energy Aware Systems - Core</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>s4city</t>
+          <t>seas</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Smart Applications Reference - s4ener</t>
+          <t>Steel Element Reuse Ontology</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>s4ener</t>
+          <t>sero</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>Circular Economy</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2609,17 +2619,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Smart Applications Reference - s4envi</t>
+          <t>EN 17632-1:2022 / EN 17632-2:2024 - BIM Semantic modelling and linking (SML) - Normative classes and properties (RDFS, OWL, and SHACL)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>s4envi</t>
+          <t>sml</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>Standards, Codes and Certifications</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2629,17 +2639,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Smart Applications Reference - s4grid</t>
+          <t>EN 17632-1:2022 / EN 17632-2:2024 - BIM Semantic modelling and linking (SML) - Normative terminology (SKOS)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>s4grid</t>
+          <t>sml-term</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>Standards, Codes and Certifications</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2649,12 +2659,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Smart Applications Reference - s4lift</t>
+          <t>Semantic Sensor Network Ontology - SOSA</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>s4lift</t>
+          <t>sosa</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2663,18 +2673,18 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Smart Applications Reference - s4syst</t>
+          <t>Semantic Sensor Network Ontology - SSN</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>s4syst</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2683,23 +2693,23 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Smart Applications Reference - s4water</t>
+          <t>Scan To Graph</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>s4water</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2709,17 +2719,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Smart Building Evacuation Ontology</t>
+          <t>Users and Preference Information</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>sbeo</t>
+          <t>th-actor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Comfort</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2729,37 +2739,37 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Smart Energy Aware Systems - Core</t>
+          <t>Architecture and Building Physics Information Ontology</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>seas</t>
+          <t>th-building</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Steel Element Reuse Ontology</t>
+          <t>Energy and Resource Information</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>sero</t>
+          <t>th-energy</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Circular Economy</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2769,17 +2779,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Stream Annotation Ontology</t>
+          <t>User Behavior and Building Process Information</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>sao</t>
+          <t>th-process</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>IoT Sensors/Actuators</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2789,17 +2799,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>UNified Ontology for Construction Safety</t>
+          <t>Buildling Ontology Shared Vocabulary</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>unocs</t>
+          <t>th-sharedvocabulary</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>BE Product (Building)</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2809,17 +2819,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>User Behavior and Building Process Information</t>
+          <t>Weather and Exterior Influence Information</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>th-process</t>
+          <t>th-weather</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Weather/Climate</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2849,17 +2859,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>User Profile Ontology</t>
+          <t>UNified Ontology for Construction Safety</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>upo</t>
+          <t>unocs</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Mobility/Transport</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2869,17 +2879,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Users and Preference Information</t>
+          <t>User Profile Ontology</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>th-actor</t>
+          <t>upo</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Comfort</t>
+          <t>Mobility/Transport</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2889,12 +2899,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Weather and Exterior Influence Information</t>
+          <t>BIMERR Weather Ontology</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>th-weather</t>
+          <t>weat</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2976,307 +2986,307 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>aoi</t>
+          <t>ao</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dot</t>
+          <t>building</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>icdd2ams</t>
+          <t>ao</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>asb</t>
+          <t>kpi</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>icdd2ams</t>
+          <t>ao</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>io</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bimdo</t>
+          <t>aoi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bimso</t>
+          <t>dot</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ao</t>
+          <t>beo</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>ifc4-add2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ao</t>
+          <t>bfp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>kpi</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ao</t>
+          <t>bfp</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>io</t>
+          <t>brick</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>bfp</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>sosa</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>bimdo</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>s4bldg</t>
+          <t>bimso</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>kpi</t>
+          <t>bot</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>s4city</t>
+          <t>dbo</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>kpi</t>
+          <t>bpo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>seas</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>brick</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>rec</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>brick</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>sosa</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>building</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>s4bldg</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>building</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>s4bldg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>op</t>
+          <t>cdc</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>renp</t>
+          <t>cdc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>dot</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>renp</t>
+          <t>cdo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>kpi</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>cdo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>dot</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>cdo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>beo</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>weat</t>
+          <t>cdo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>aoi</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>weat</t>
+          <t>conse</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>s4city</t>
+          <t>sosa</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>brick</t>
+          <t>conse</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>rec</t>
+          <t>dica</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>brick</t>
+          <t>conse</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>dice</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>contax</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>beo</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ifc4-add2</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>bfp</t>
+          <t>contax</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3288,79 +3298,79 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>bfp</t>
+          <t>contax</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>brick</t>
+          <t>dot</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bfp</t>
+          <t>contax</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>mep</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>bpo</t>
+          <t>contax</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>seas</t>
+          <t>opm</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>contax</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dbo</t>
+          <t>omg</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>esair</t>
+          <t>contax</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>esair</t>
+          <t>contax</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>cto</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>cto</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3372,432 +3382,432 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>cto</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>beo</t>
+          <t>dot</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>cto</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>s4bldg</t>
+          <t>contax</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>dica</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>dice</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>iot</t>
+          <t>dica</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>dicp</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>iot</t>
+          <t>dice</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>dicc</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>iot</t>
+          <t>dice</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>dicv</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>dices</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>dice</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>dices</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>dici</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>dices</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>dicp</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>dices</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>dicu</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>dices</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>dicv</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>dici</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>dica</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>dici</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>dicc</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>dici</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>iot</t>
+          <t>dice</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>dici</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>dicp</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>dici</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>dicv</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cdo</t>
+          <t>dicl</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>dica</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cdo</t>
+          <t>dicl</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>dot</t>
+          <t>dicc</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cdo</t>
+          <t>dicl</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>beo</t>
+          <t>dice</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>cdo</t>
+          <t>dicl</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>aoi</t>
+          <t>dicp</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cdc</t>
+          <t>dicl</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>dicv</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>cdc</t>
+          <t>dicm</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>dot</t>
+          <t>dice</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>conse</t>
+          <t>dicm</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>dicu</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>conse</t>
+          <t>dicm</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>dica</t>
+          <t>dicv</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>conse</t>
+          <t>dicob</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>dica</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>cto</t>
+          <t>dicob</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>dicc</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>cto</t>
+          <t>dicob</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>dot</t>
+          <t>dice</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>cto</t>
+          <t>dicob</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>contax</t>
+          <t>dici</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>contax</t>
+          <t>dicob</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>beo</t>
+          <t>dicp</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>contax</t>
+          <t>dicob</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>dicu</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>contax</t>
+          <t>dicob</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>dot</t>
+          <t>dicv</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>contax</t>
+          <t>dicp</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>mep</t>
+          <t>dice</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>contax</t>
+          <t>dicp</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>opm</t>
+          <t>dicv</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>contax</t>
+          <t>dor</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>omg</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>contax</t>
+          <t>dor</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>bpo</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>contax</t>
+          <t>dor</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>cto</t>
+          <t>dicm</t>
         </is>
       </c>
     </row>
@@ -3828,12 +3838,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>dt</t>
+          <t>dstv</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>loin</t>
+          <t>ioc</t>
         </is>
       </c>
     </row>
@@ -3845,998 +3855,998 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>isoprops</t>
+          <t>loin</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>dor</t>
+          <t>dt</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>isoprops</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>dor</t>
+          <t>dtc</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bpo</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>dor</t>
+          <t>dtc</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>dicm</t>
+          <t>beo</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>dica</t>
+          <t>esair</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>sosa</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dica</t>
+          <t>esair</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>dicp</t>
+          <t>sosa</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>dices</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>dices</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>dici</t>
+          <t>beo</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>dices</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>dicp</t>
+          <t>s4bldg</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>dices</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>dicu</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>dices</t>
+          <t>fisa</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>dicv</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>fm-ener</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>dicc</t>
+          <t>ifc4-add2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>fog</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>dicv</t>
+          <t>omg</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>dici</t>
+          <t>FSO</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>dica</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>dici</t>
+          <t>HBPO</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>dicc</t>
+          <t>mep</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>dici</t>
+          <t>HBPO</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>beo</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>dici</t>
+          <t>HBPO</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>dicp</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>dici</t>
+          <t>HBPO</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>dicv</t>
+          <t>mat</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>dicl</t>
+          <t>HBPO</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>dica</t>
+          <t>ifc4-add2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>dicl</t>
+          <t>icdd2ams</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>dicc</t>
+          <t>asb</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>dicl</t>
+          <t>icdd2ams</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>dicl</t>
+          <t>idpo</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>dicp</t>
+          <t>ifc4-add2</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>dicl</t>
+          <t>idpo</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>dicv</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>dicm</t>
+          <t>ioc</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>dicm</t>
+          <t>ioc</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>dicu</t>
+          <t>omg</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>dicm</t>
+          <t>ioc</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>dicv</t>
+          <t>cto</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>dicob</t>
+          <t>iot</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>dica</t>
+          <t>resource</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>dicob</t>
+          <t>iot</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>dicc</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>dicob</t>
+          <t>iot</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>facility</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>dicob</t>
+          <t>isoprops</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>dici</t>
+          <t>opm</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>dicob</t>
+          <t>kpi</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>dicp</t>
+          <t>s4city</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>dicob</t>
+          <t>kpi</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>dicu</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>dicob</t>
+          <t>mat</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>dicv</t>
+          <t>building</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>dicp</t>
+          <t>mat</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>dicp</t>
+          <t>mdo</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>dicv</t>
+          <t>emmo</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>dtc</t>
+          <t>mep</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>ifc4-add2</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>dtc</t>
+          <t>mpo</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>beo</t>
+          <t>emmo</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>mep</t>
+          <t>mpo</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ifc4-add2</t>
+          <t>mdo</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>dstv</t>
+          <t>obpa</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ioc</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>sml</t>
+          <t>ocqa</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>opm</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>sml-term</t>
+          <t>ocqa</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>dica</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>fm-ener</t>
+          <t>ocqa</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ifc4-add2</t>
+          <t>dice</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>ocqa</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>omg</t>
+          <t>dicp</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>fisa</t>
+          <t>omg</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>opm</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>FSO</t>
+          <t>omg</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>seas</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBPO</t>
+          <t>op</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>mep</t>
+          <t>s4bldg</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBPO</t>
+          <t>op</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>beo</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBPO</t>
+          <t>op</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>building</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBPO</t>
+          <t>opm</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>mat</t>
+          <t>seas</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBPO</t>
+          <t>process</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ifc4-add2</t>
+          <t>resource</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>idpo</t>
+          <t>process</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ifc4-add2</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>idpo</t>
+          <t>process</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>facility</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ioc</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>facility</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ioc</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>omg</t>
+          <t>process</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ioc</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>cto</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>isoprops</t>
+          <t>rec</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>opm</t>
+          <t>brick</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>mpo</t>
+          <t>renp</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>emmo</t>
+          <t>building</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>mpo</t>
+          <t>renp</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>mdo</t>
+          <t>kpi</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>mdo</t>
+          <t>resource</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>emmo</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>obpa</t>
+          <t>resource</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>iot</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ocqa</t>
+          <t>s4bldg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>opm</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ocqa</t>
+          <t>s4city</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>dica</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ocqa</t>
+          <t>s4ener</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>dice</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ocqa</t>
+          <t>s4envi</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>dicp</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>omg</t>
+          <t>s4grid</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>opm</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>omg</t>
+          <t>s4grid</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>seas</t>
+          <t>onem2m</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>opm</t>
+          <t>s4lift</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>seas</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>rec</t>
+          <t>s4lift</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>brick</t>
+          <t>s4bldg</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>s4lift</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>s4syst</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>s4water</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>beo</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>s4water</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>omg</t>
+          <t>s4city</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>s4water</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>bpo</t>
+          <t>s4syst</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>stg</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>fog</t>
+          <t>resource</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>facility</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>sbim</t>
+          <t>sao</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>seas</t>
+          <t>ssn</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>sbim</t>
+          <t>saref</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>s4syst</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>sbim</t>
+          <t>sbeo</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>bpo</t>
+          <t>seas</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>sbim</t>
+          <t>sbeo</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>omg</t>
+          <t>sosa</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>s4bldg</t>
+          <t>sbim</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>seas</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>sbim</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>s4syst</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>s4city</t>
+          <t>sbim</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>bpo</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>s4ener</t>
+          <t>sbim</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>omg</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>s4envi</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>building</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>s4grid</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4848,168 +4858,168 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>s4grid</t>
+          <t>sero</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>onem2m</t>
+          <t>beo</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>s4lift</t>
+          <t>sero</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>dicm</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>s4lift</t>
+          <t>sero</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>s4bldg</t>
+          <t>dot</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>s4lift</t>
+          <t>sero</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>s4syst</t>
+          <t>cdo</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>s4water</t>
+          <t>sml</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>saref</t>
+          <t>sosa</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>s4water</t>
+          <t>sml-term</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>s4city</t>
+          <t>sosa</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>s4water</t>
+          <t>ssn</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>s4syst</t>
+          <t>sosa</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>sbeo</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>seas</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>sbeo</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>beo</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>sero</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>beo</t>
+          <t>omg</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>sero</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>dicm</t>
+          <t>bpo</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>sero</t>
+          <t>stg</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>dot</t>
+          <t>fog</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>sero</t>
+          <t>unocs</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>cdo</t>
+          <t>dicu</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>sao</t>
+          <t>unocs</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ssn</t>
+          <t>bot</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5031,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>dicu</t>
+          <t>dici</t>
         </is>
       </c>
     </row>
@@ -5033,7 +5043,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>bot</t>
+          <t>ocqa</t>
         </is>
       </c>
     </row>
@@ -5045,31 +5055,31 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>dici</t>
+          <t>opm</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>unocs</t>
+          <t>weat</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ocqa</t>
+          <t>saref</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>unocs</t>
+          <t>weat</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>opm</t>
+          <t>s4city</t>
         </is>
       </c>
     </row>
